--- a/ColorUniversalDesignV4.xlsx
+++ b/ColorUniversalDesignV4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaizawa\Documents\GitHub\VBAtools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D8AECD-1F6C-4FA5-B1DC-9CF1E475D23F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32B9B63-0A10-459B-B3F8-4D818AA5161C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0222CF77-E032-4E9B-BF06-591BAE186924}"/>
   </bookViews>
@@ -32,6 +32,463 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+  <si>
+    <t>アクセントカラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J08-50V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPMA標準色</t>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジュンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色名</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンセル値</t>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMYK値</t>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGB値</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.75R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色相</t>
+    <rPh sb="0" eb="2">
+      <t>シキソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明度</t>
+    <rPh sb="0" eb="2">
+      <t>メイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彩度</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J27-85V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.5Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J46-60T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.25G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J72-40T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5PB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空色</t>
+    <rPh sb="0" eb="2">
+      <t>ソライロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J69-70P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J02-70T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J15-65X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5YR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J89-40T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茶色</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J09-30H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替黄</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J27-90P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代替緑</t>
+    <rPh sb="0" eb="2">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J45-60L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベースカラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明るいピンク</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J05-80L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J25-90H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明るい黄緑</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J32-80P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5GY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明るい空色</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソライロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J69-80H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベージュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J19-75L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10YR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明るい緑</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J42-70H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明るい紫</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J82-70H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGB値はペイントカラー検索システムより</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無彩色</t>
+    <rPh sb="0" eb="3">
+      <t>ムサイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JN-93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明るいグレー</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J75-80B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5PB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J75-50C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JN-15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細い線、文字の印字にはCMYK=(0,0,0,100)</t>
+    <rPh sb="0" eb="1">
+      <t>ホソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>インジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -51,15 +508,147 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4B00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8082"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF990099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEE267"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5CA57C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCABF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8F255"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFE4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCA80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77D9A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9ACE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -67,15 +656,437 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -83,6 +1094,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC9ACE6"/>
+      <color rgb="FF77D9A8"/>
+      <color rgb="FFFFCA80"/>
+      <color rgb="FFBFE4FF"/>
+      <color rgb="FFD8F255"/>
+      <color rgb="FFFFFF80"/>
+      <color rgb="FFFFCABF"/>
+      <color rgb="FF5CA57C"/>
+      <color rgb="FFFEE267"/>
+      <color rgb="FF990099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -391,12 +1416,993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC8F661-0FCE-4783-AB63-3D3CC359B538}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.5" customWidth="1"/>
+    <col min="12" max="14" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="45"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>75</v>
+      </c>
+      <c r="J3" s="4">
+        <v>90</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>255</v>
+      </c>
+      <c r="M3" s="4">
+        <v>75</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="52"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="G4" s="11">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>100</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>255</v>
+      </c>
+      <c r="M4" s="10">
+        <v>241</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="52"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9">
+        <v>75</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>65</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3</v>
+      </c>
+      <c r="M5" s="10">
+        <v>175</v>
+      </c>
+      <c r="N5" s="11">
+        <v>122</v>
+      </c>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="52"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9">
+        <v>100</v>
+      </c>
+      <c r="I6" s="10">
+        <v>45</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <v>90</v>
+      </c>
+      <c r="N6" s="11">
+        <v>255</v>
+      </c>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="52"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="10">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9">
+        <v>55</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>77</v>
+      </c>
+      <c r="M7" s="10">
+        <v>196</v>
+      </c>
+      <c r="N7" s="11">
+        <v>255</v>
+      </c>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="52"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>55</v>
+      </c>
+      <c r="J8" s="10">
+        <v>35</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>255</v>
+      </c>
+      <c r="M8" s="10">
+        <v>128</v>
+      </c>
+      <c r="N8" s="11">
+        <v>130</v>
+      </c>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="52"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="G9" s="11">
+        <v>14</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>45</v>
+      </c>
+      <c r="J9" s="10">
+        <v>100</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>246</v>
+      </c>
+      <c r="M9" s="10">
+        <v>170</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="52"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9">
+        <v>30</v>
+      </c>
+      <c r="I10" s="10">
+        <v>95</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>153</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>153</v>
+      </c>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="52"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9">
+        <v>55</v>
+      </c>
+      <c r="I11" s="10">
+        <v>90</v>
+      </c>
+      <c r="J11" s="10">
+        <v>100</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>128</v>
+      </c>
+      <c r="M11" s="10">
+        <v>64</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="52"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="10">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11">
+        <v>8</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="9">
+        <v>254</v>
+      </c>
+      <c r="M12" s="10">
+        <v>226</v>
+      </c>
+      <c r="N12" s="11">
+        <v>103</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="52"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="27">
+        <v>6</v>
+      </c>
+      <c r="G13" s="28">
+        <v>6</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="26">
+        <v>92</v>
+      </c>
+      <c r="M13" s="27">
+        <v>165</v>
+      </c>
+      <c r="N13" s="28">
+        <v>124</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4">
+        <v>15</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>255</v>
+      </c>
+      <c r="M14" s="4">
+        <v>202</v>
+      </c>
+      <c r="N14" s="5">
+        <v>191</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="52"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="10">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11">
+        <v>4</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>40</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>255</v>
+      </c>
+      <c r="M15" s="10">
+        <v>255</v>
+      </c>
+      <c r="N15" s="11">
+        <v>128</v>
+      </c>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="52"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="10">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11">
+        <v>8</v>
+      </c>
+      <c r="H16" s="9">
+        <v>25</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>80</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>216</v>
+      </c>
+      <c r="M16" s="10">
+        <v>242</v>
+      </c>
+      <c r="N16" s="11">
+        <v>85</v>
+      </c>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="52"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="10">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11">
+        <v>4</v>
+      </c>
+      <c r="H17" s="9">
+        <v>30</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>191</v>
+      </c>
+      <c r="M17" s="10">
+        <v>228</v>
+      </c>
+      <c r="N17" s="11">
+        <v>255</v>
+      </c>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="52"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="G18" s="11">
+        <v>6</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>25</v>
+      </c>
+      <c r="J18" s="10">
+        <v>45</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>255</v>
+      </c>
+      <c r="M18" s="10">
+        <v>202</v>
+      </c>
+      <c r="N18" s="11">
+        <v>128</v>
+      </c>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="52"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="10">
+        <v>7</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4</v>
+      </c>
+      <c r="H19" s="9">
+        <v>45</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <v>45</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>119</v>
+      </c>
+      <c r="M19" s="10">
+        <v>217</v>
+      </c>
+      <c r="N19" s="11">
+        <v>168</v>
+      </c>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="52"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="27">
+        <v>7</v>
+      </c>
+      <c r="G20" s="28">
+        <v>4</v>
+      </c>
+      <c r="H20" s="26">
+        <v>25</v>
+      </c>
+      <c r="I20" s="27">
+        <v>30</v>
+      </c>
+      <c r="J20" s="27">
+        <v>0</v>
+      </c>
+      <c r="K20" s="28">
+        <v>0</v>
+      </c>
+      <c r="L20" s="26">
+        <v>201</v>
+      </c>
+      <c r="M20" s="27">
+        <v>172</v>
+      </c>
+      <c r="N20" s="28">
+        <v>230</v>
+      </c>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>255</v>
+      </c>
+      <c r="M21" s="4">
+        <v>255</v>
+      </c>
+      <c r="N21" s="5">
+        <v>255</v>
+      </c>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="52"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="10">
+        <v>8</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>15</v>
+      </c>
+      <c r="I22" s="10">
+        <v>10</v>
+      </c>
+      <c r="J22" s="10">
+        <v>10</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>200</v>
+      </c>
+      <c r="M22" s="10">
+        <v>200</v>
+      </c>
+      <c r="N22" s="11">
+        <v>203</v>
+      </c>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="52"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="10">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="10">
+        <v>10</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>55</v>
+      </c>
+      <c r="L23" s="9">
+        <v>132</v>
+      </c>
+      <c r="M23" s="10">
+        <v>145</v>
+      </c>
+      <c r="N23" s="11">
+        <v>158</v>
+      </c>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="52"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="26">
+        <v>50</v>
+      </c>
+      <c r="I24" s="27">
+        <v>50</v>
+      </c>
+      <c r="J24" s="27">
+        <v>50</v>
+      </c>
+      <c r="K24" s="28">
+        <v>100</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="27">
+        <v>0</v>
+      </c>
+      <c r="N24" s="28">
+        <v>0</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A24"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
